--- a/OTHERS/DOC/移行資料.xlsx
+++ b/OTHERS/DOC/移行資料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="914" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="914" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -848,9 +848,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2039,28 +2039,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7848,8 +7848,8 @@
   <sheetPr/>
   <dimension ref="B3:S66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26:R41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8357,6 +8357,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8648,8 +8649,8 @@
   <sheetPr/>
   <dimension ref="C6:C35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
